--- a/Problem 1/Problem1.xlsx
+++ b/Problem 1/Problem1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\UDL\2 semester\Communication Services and Security - ICT Project - 103087\Communication-Services-and-Security\Problem1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\UDL\2 semester\Communication Services and Security - ICT Project - 103087\Communication-Services-and-Security\Problem 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB0943E-B69A-4DC6-9E02-E5080313FDE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46C3FCB-55EA-4D14-9C21-A151561139A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>AvgLen</t>
   </si>
@@ -56,23 +56,13 @@
     <t>MaxP</t>
   </si>
   <si>
-    <t>Qavg</t>
-  </si>
-  <si>
-    <t>Qmin</t>
-  </si>
-  <si>
-    <t>Qmax</t>
-  </si>
-  <si>
     <t>3.</t>
   </si>
   <si>
-    <t>1. Probability of a segment being dropped with a AvgLen=8</t>
-  </si>
-  <si>
-    <t>2. Probability that 3 consecutive segments enter into the queue, assuming that all of them
-find the same average queue length (AvgLen) of 8</t>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>2.</t>
   </si>
 </sst>
 </file>
@@ -136,17 +126,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,72 +423,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.6328125" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" customWidth="1"/>
-    <col min="8" max="8" width="13.36328125" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" customWidth="1"/>
-    <col min="10" max="10" width="13.26953125" customWidth="1"/>
-    <col min="11" max="11" width="12.453125" customWidth="1"/>
+    <col min="2" max="3" width="12.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="F1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="3"/>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="D1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -501,7 +479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -509,7 +487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -517,15 +495,19 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B10">
+        <f>B8*(B3-B6)/(B7-B6)</f>
+        <v>0.26666666666666666</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
